--- a/Excel_openpyxl.xlsx
+++ b/Excel_openpyxl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\RobotAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFD49C6-0E58-4F21-BECD-901F9A5CD58E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7259862B-4285-4032-9E1F-79263E7AB3C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Body Data</t>
   </si>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -493,7 +493,7 @@
     <col min="3" max="3" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -511,11 +511,8 @@
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -523,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
     </row>
@@ -538,7 +535,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
